--- a/Networks/Parte4/Excel/Network56.xlsx
+++ b/Networks/Parte4/Excel/Network56.xlsx
@@ -724,172 +724,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106.6618955640294</v>
+        <v>56.60561295423266</v>
       </c>
       <c r="C2" t="n">
-        <v>172.629137026692</v>
+        <v>-83.0933209614923</v>
       </c>
       <c r="D2" t="n">
-        <v>-26.52394976108982</v>
+        <v>-49.42422389586616</v>
       </c>
       <c r="E2" t="n">
-        <v>-167.3955619267198</v>
+        <v>-35.12859918952741</v>
       </c>
       <c r="F2" t="n">
-        <v>185.3878348552014</v>
+        <v>-90.75138459502742</v>
       </c>
       <c r="G2" t="n">
-        <v>-330.611044030866</v>
+        <v>-81.35070314531069</v>
       </c>
       <c r="H2" t="n">
-        <v>-482.3372089627644</v>
+        <v>-54.67503529131535</v>
       </c>
       <c r="I2" t="n">
-        <v>-101.6472932384044</v>
+        <v>67.55583110780044</v>
       </c>
       <c r="J2" t="n">
-        <v>-300.592406124291</v>
+        <v>-70.05803996230802</v>
       </c>
       <c r="K2" t="n">
-        <v>-85.18424189916881</v>
+        <v>-92.89169886794772</v>
       </c>
       <c r="L2" t="n">
-        <v>-344.5663502397895</v>
+        <v>-66.32379437817434</v>
       </c>
       <c r="M2" t="n">
-        <v>-509.3831226959247</v>
+        <v>34.56516159251039</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.838632466073346</v>
+        <v>-65.38373941052767</v>
       </c>
       <c r="O2" t="n">
-        <v>-177.3035187640118</v>
+        <v>52.5109244438442</v>
       </c>
       <c r="P2" t="n">
-        <v>27.03902888291703</v>
+        <v>19.75602395057764</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.60267212494066</v>
+        <v>1.137855631476907</v>
       </c>
       <c r="R2" t="n">
-        <v>364.0828165221408</v>
+        <v>25.41367940306989</v>
       </c>
       <c r="S2" t="n">
-        <v>-397.9788622437907</v>
+        <v>30.84539992687071</v>
       </c>
       <c r="T2" t="n">
-        <v>131.3953987475358</v>
+        <v>62.70514156204455</v>
       </c>
       <c r="U2" t="n">
-        <v>-509.8982851099428</v>
+        <v>19.06231769921812</v>
       </c>
       <c r="V2" t="n">
-        <v>-175.1731595764551</v>
+        <v>22.46168425219491</v>
       </c>
       <c r="W2" t="n">
-        <v>161.6350937004445</v>
+        <v>-89.83433132295404</v>
       </c>
       <c r="X2" t="n">
-        <v>123.6734959109241</v>
+        <v>-49.44006185635413</v>
       </c>
       <c r="Y2" t="n">
-        <v>-406.391898268399</v>
+        <v>-93.69180404650787</v>
       </c>
       <c r="Z2" t="n">
-        <v>-436.6086287904275</v>
+        <v>-92.59619348691272</v>
       </c>
       <c r="AA2" t="n">
-        <v>-23.65322748772579</v>
+        <v>-79.19396020273598</v>
       </c>
       <c r="AB2" t="n">
-        <v>-265.9569993924022</v>
+        <v>3.738314300700142</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.5703879871328</v>
+        <v>-76.74997035196981</v>
       </c>
       <c r="AD2" t="n">
-        <v>269.2579064957622</v>
+        <v>-58.2232020463986</v>
       </c>
       <c r="AE2" t="n">
-        <v>55.53888770159018</v>
+        <v>-16.748481248119</v>
       </c>
       <c r="AF2" t="n">
-        <v>-141.0852263319747</v>
+        <v>-89.13860256524686</v>
       </c>
       <c r="AG2" t="n">
-        <v>-340.4416088774314</v>
+        <v>-18.00150034055029</v>
       </c>
       <c r="AH2" t="n">
-        <v>106.0889266433435</v>
+        <v>-93.02543589467913</v>
       </c>
       <c r="AI2" t="n">
-        <v>-111.8132718574026</v>
+        <v>-43.91099404321593</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-468.2180567950019</v>
+        <v>-97.81166944412023</v>
       </c>
       <c r="AK2" t="n">
-        <v>196.7892199345465</v>
+        <v>32.75581134553389</v>
       </c>
       <c r="AL2" t="n">
-        <v>-92.99290922887002</v>
+        <v>44.73929315978744</v>
       </c>
       <c r="AM2" t="n">
-        <v>-116.3516068582291</v>
+        <v>-39.85680535672197</v>
       </c>
       <c r="AN2" t="n">
-        <v>-290.189945679231</v>
+        <v>26.85975932406604</v>
       </c>
       <c r="AO2" t="n">
-        <v>121.2265498641767</v>
+        <v>-84.46753206356898</v>
       </c>
       <c r="AP2" t="n">
-        <v>-253.0690183834172</v>
+        <v>3.844461654406957</v>
       </c>
       <c r="AQ2" t="n">
-        <v>88.42418845402658</v>
+        <v>45.58637183240432</v>
       </c>
       <c r="AR2" t="n">
-        <v>-269.9026228147517</v>
+        <v>-20.04971194066247</v>
       </c>
       <c r="AS2" t="n">
-        <v>233.727147363679</v>
+        <v>19.40378886242841</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.406708835182627</v>
+        <v>-79.72588323352964</v>
       </c>
       <c r="AU2" t="n">
-        <v>281.3648368477845</v>
+        <v>-62.29585190767555</v>
       </c>
       <c r="AV2" t="n">
-        <v>357.9067458788968</v>
+        <v>-69.03515007922665</v>
       </c>
       <c r="AW2" t="n">
-        <v>-424.0239338854242</v>
+        <v>-18.24168310419148</v>
       </c>
       <c r="AX2" t="n">
-        <v>151.5839582391393</v>
+        <v>6.728590244930683</v>
       </c>
       <c r="AY2" t="n">
-        <v>76.04000459026389</v>
+        <v>-46.07183468753586</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-46.11053605610804</v>
+        <v>-57.30776974635438</v>
       </c>
       <c r="BA2" t="n">
-        <v>-69.90801042571309</v>
+        <v>29.58012546803961</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.5634326196844829</v>
+        <v>-33.53772242837032</v>
       </c>
       <c r="BC2" t="n">
-        <v>-584.1253895810399</v>
+        <v>-97.30614898539356</v>
       </c>
       <c r="BD2" t="n">
-        <v>-75.89012864028865</v>
+        <v>-11.57052473689198</v>
       </c>
       <c r="BE2" t="n">
-        <v>-85.06907122066754</v>
+        <v>37.62398342505858</v>
       </c>
     </row>
     <row r="3">
@@ -899,172 +899,172 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.15734503152244</v>
+        <v>38.64461481877396</v>
       </c>
       <c r="C3" t="n">
-        <v>-91.34825334747553</v>
+        <v>12.51190745422024</v>
       </c>
       <c r="D3" t="n">
-        <v>108.237938648039</v>
+        <v>40.03908554187949</v>
       </c>
       <c r="E3" t="n">
-        <v>179.0135280344572</v>
+        <v>46.59760266553539</v>
       </c>
       <c r="F3" t="n">
-        <v>-233.4529608394726</v>
+        <v>23.86613523369019</v>
       </c>
       <c r="G3" t="n">
-        <v>79.87661464915021</v>
+        <v>29.32878532330606</v>
       </c>
       <c r="H3" t="n">
-        <v>92.86883188265547</v>
+        <v>32.82628895160165</v>
       </c>
       <c r="I3" t="n">
-        <v>-6.112611882359827</v>
+        <v>-42.32714261844222</v>
       </c>
       <c r="J3" t="n">
-        <v>-57.66950468938007</v>
+        <v>38.01409867947657</v>
       </c>
       <c r="K3" t="n">
-        <v>19.16123594378829</v>
+        <v>25.09338404453602</v>
       </c>
       <c r="L3" t="n">
-        <v>80.2577027070017</v>
+        <v>10.42859030490776</v>
       </c>
       <c r="M3" t="n">
-        <v>32.30344107824777</v>
+        <v>28.4207985589865</v>
       </c>
       <c r="N3" t="n">
-        <v>155.1014706428543</v>
+        <v>27.42955279768319</v>
       </c>
       <c r="O3" t="n">
-        <v>21.10892414750545</v>
+        <v>43.71685924328773</v>
       </c>
       <c r="P3" t="n">
-        <v>75.91168468588623</v>
+        <v>13.4475260115187</v>
       </c>
       <c r="Q3" t="n">
-        <v>141.6374157577732</v>
+        <v>52.56470441081972</v>
       </c>
       <c r="R3" t="n">
-        <v>214.0062168730285</v>
+        <v>52.22999343419015</v>
       </c>
       <c r="S3" t="n">
-        <v>107.2011087145277</v>
+        <v>44.75074628086486</v>
       </c>
       <c r="T3" t="n">
-        <v>143.4895469683307</v>
+        <v>23.13571963315483</v>
       </c>
       <c r="U3" t="n">
-        <v>79.44841870400462</v>
+        <v>35.93741022491852</v>
       </c>
       <c r="V3" t="n">
-        <v>86.20005129122399</v>
+        <v>-6.771521132618616</v>
       </c>
       <c r="W3" t="n">
-        <v>97.19376529473145</v>
+        <v>12.04164215888818</v>
       </c>
       <c r="X3" t="n">
-        <v>218.9654984306141</v>
+        <v>28.30590160950758</v>
       </c>
       <c r="Y3" t="n">
-        <v>76.44324393972866</v>
+        <v>22.16553333312583</v>
       </c>
       <c r="Z3" t="n">
-        <v>73.60482070816073</v>
+        <v>17.99464057879848</v>
       </c>
       <c r="AA3" t="n">
-        <v>278.9674536756104</v>
+        <v>32.98829725766483</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.3270657823946</v>
+        <v>-10.46510169090891</v>
       </c>
       <c r="AC3" t="n">
-        <v>-17.9950836804125</v>
+        <v>13.57913368751935</v>
       </c>
       <c r="AD3" t="n">
-        <v>187.0669286840523</v>
+        <v>6.101217666305248</v>
       </c>
       <c r="AE3" t="n">
-        <v>-78.05973577646336</v>
+        <v>45.20581682802843</v>
       </c>
       <c r="AF3" t="n">
-        <v>67.9101522484012</v>
+        <v>39.01224794951688</v>
       </c>
       <c r="AG3" t="n">
-        <v>175.2208872723081</v>
+        <v>56.11869936503533</v>
       </c>
       <c r="AH3" t="n">
-        <v>286.9474383127653</v>
+        <v>27.25666950026459</v>
       </c>
       <c r="AI3" t="n">
-        <v>153.2404205275643</v>
+        <v>41.5677391482572</v>
       </c>
       <c r="AJ3" t="n">
-        <v>173.0335762421333</v>
+        <v>27.90044030418122</v>
       </c>
       <c r="AK3" t="n">
-        <v>229.3054552431896</v>
+        <v>25.88805139567667</v>
       </c>
       <c r="AL3" t="n">
-        <v>65.06195461323748</v>
+        <v>45.7919443632244</v>
       </c>
       <c r="AM3" t="n">
-        <v>203.3779812463302</v>
+        <v>40.35701519090898</v>
       </c>
       <c r="AN3" t="n">
-        <v>60.47912312507663</v>
+        <v>-1.874907400906264</v>
       </c>
       <c r="AO3" t="n">
-        <v>81.6771225836692</v>
+        <v>24.42784570451185</v>
       </c>
       <c r="AP3" t="n">
-        <v>185.1384334196524</v>
+        <v>44.92978234740373</v>
       </c>
       <c r="AQ3" t="n">
-        <v>188.8461246733582</v>
+        <v>38.12659521868373</v>
       </c>
       <c r="AR3" t="n">
-        <v>32.75015874343156</v>
+        <v>47.68025974895576</v>
       </c>
       <c r="AS3" t="n">
-        <v>193.8670945409661</v>
+        <v>36.90310610840345</v>
       </c>
       <c r="AT3" t="n">
-        <v>188.4734375395303</v>
+        <v>28.48303257688537</v>
       </c>
       <c r="AU3" t="n">
-        <v>-159.0428715903713</v>
+        <v>11.10800245353049</v>
       </c>
       <c r="AV3" t="n">
-        <v>155.5922551172957</v>
+        <v>34.3120881972299</v>
       </c>
       <c r="AW3" t="n">
-        <v>253.4520548115542</v>
+        <v>37.01900305141777</v>
       </c>
       <c r="AX3" t="n">
-        <v>119.2911557679974</v>
+        <v>50.22006772514452</v>
       </c>
       <c r="AY3" t="n">
-        <v>-174.1937640447102</v>
+        <v>7.243996659078602</v>
       </c>
       <c r="AZ3" t="n">
-        <v>131.6942656890297</v>
+        <v>43.12518755307921</v>
       </c>
       <c r="BA3" t="n">
-        <v>153.5061005962818</v>
+        <v>0.7696452437737593</v>
       </c>
       <c r="BB3" t="n">
-        <v>144.5237199066372</v>
+        <v>6.151934344649606</v>
       </c>
       <c r="BC3" t="n">
-        <v>118.9680606836722</v>
+        <v>26.18628253093167</v>
       </c>
       <c r="BD3" t="n">
-        <v>145.8515618459698</v>
+        <v>40.31948376112117</v>
       </c>
       <c r="BE3" t="n">
-        <v>239.0164128257283</v>
+        <v>-44.46781980345283</v>
       </c>
     </row>
     <row r="4">
@@ -1074,172 +1074,172 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.04407625961054</v>
+        <v>-2.957916639077198</v>
       </c>
       <c r="C4" t="n">
-        <v>4.748201514533065</v>
+        <v>9.670805892983838</v>
       </c>
       <c r="D4" t="n">
-        <v>230.9879792547003</v>
+        <v>23.44304993434257</v>
       </c>
       <c r="E4" t="n">
-        <v>50.47298113071034</v>
+        <v>42.56402516762506</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8750753966972</v>
+        <v>21.87680422745515</v>
       </c>
       <c r="G4" t="n">
-        <v>91.72268865211514</v>
+        <v>23.72973595256998</v>
       </c>
       <c r="H4" t="n">
-        <v>138.1439541468159</v>
+        <v>33.24765797484564</v>
       </c>
       <c r="I4" t="n">
-        <v>9.656706117575615</v>
+        <v>26.45968648226829</v>
       </c>
       <c r="J4" t="n">
-        <v>-64.61136153582898</v>
+        <v>20.17295158823803</v>
       </c>
       <c r="K4" t="n">
-        <v>7.580225512991938</v>
+        <v>20.31211884386781</v>
       </c>
       <c r="L4" t="n">
-        <v>136.7231272167908</v>
+        <v>6.001644021403799</v>
       </c>
       <c r="M4" t="n">
-        <v>88.98575949828832</v>
+        <v>-18.16843623032385</v>
       </c>
       <c r="N4" t="n">
-        <v>101.7925470751174</v>
+        <v>9.793563406369994</v>
       </c>
       <c r="O4" t="n">
-        <v>18.68954483414457</v>
+        <v>-4.321637871265992</v>
       </c>
       <c r="P4" t="n">
-        <v>132.7168941919623</v>
+        <v>3.385065871335852</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.02769372936778</v>
+        <v>0.3639461627679526</v>
       </c>
       <c r="R4" t="n">
-        <v>-169.2933692242281</v>
+        <v>3.275918662349577</v>
       </c>
       <c r="S4" t="n">
-        <v>117.6856452278575</v>
+        <v>-0.5386701047263457</v>
       </c>
       <c r="T4" t="n">
-        <v>-51.18920045994978</v>
+        <v>-17.93410394187668</v>
       </c>
       <c r="U4" t="n">
-        <v>63.45443628242215</v>
+        <v>0.2453262349165097</v>
       </c>
       <c r="V4" t="n">
-        <v>150.7518178081866</v>
+        <v>16.46628912953429</v>
       </c>
       <c r="W4" t="n">
-        <v>91.79488603932711</v>
+        <v>9.258359618523393</v>
       </c>
       <c r="X4" t="n">
-        <v>99.66050229117418</v>
+        <v>10.47280612129955</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.0157821398591</v>
+        <v>24.19786679706543</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.47470937308388</v>
+        <v>23.58608536703742</v>
       </c>
       <c r="AA4" t="n">
-        <v>-12.6478394096537</v>
+        <v>34.31427778644959</v>
       </c>
       <c r="AB4" t="n">
-        <v>191.5094029574369</v>
+        <v>33.55528452375643</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.4490100359798</v>
+        <v>6.107733720587864</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.960710578846186</v>
+        <v>3.555021806284868</v>
       </c>
       <c r="AE4" t="n">
-        <v>127.2642457017296</v>
+        <v>5.59026667919782</v>
       </c>
       <c r="AF4" t="n">
-        <v>209.7286445564166</v>
+        <v>37.50428989673986</v>
       </c>
       <c r="AG4" t="n">
-        <v>115.8014510766615</v>
+        <v>8.414789488313229</v>
       </c>
       <c r="AH4" t="n">
-        <v>-13.05193213131873</v>
+        <v>27.75653902852058</v>
       </c>
       <c r="AI4" t="n">
-        <v>56.0217989390823</v>
+        <v>42.27196541344072</v>
       </c>
       <c r="AJ4" t="n">
-        <v>240.3596828463324</v>
+        <v>25.57681912725242</v>
       </c>
       <c r="AK4" t="n">
-        <v>-33.61674570405135</v>
+        <v>38.8181914164127</v>
       </c>
       <c r="AL4" t="n">
-        <v>84.82164033525365</v>
+        <v>3.04346549386922</v>
       </c>
       <c r="AM4" t="n">
-        <v>111.7528490482587</v>
+        <v>12.8669930895587</v>
       </c>
       <c r="AN4" t="n">
-        <v>30.47994623463254</v>
+        <v>-3.45825770878659</v>
       </c>
       <c r="AO4" t="n">
-        <v>194.6747114588368</v>
+        <v>21.95629196504909</v>
       </c>
       <c r="AP4" t="n">
-        <v>202.1485204108736</v>
+        <v>46.27545949824951</v>
       </c>
       <c r="AQ4" t="n">
-        <v>94.05082454219955</v>
+        <v>-12.59854843236051</v>
       </c>
       <c r="AR4" t="n">
-        <v>14.62285667653857</v>
+        <v>45.26396383634049</v>
       </c>
       <c r="AS4" t="n">
-        <v>-90.2551419708597</v>
+        <v>46.82394808919897</v>
       </c>
       <c r="AT4" t="n">
-        <v>-15.90302419721435</v>
+        <v>28.03030377467614</v>
       </c>
       <c r="AU4" t="n">
-        <v>143.0037628624067</v>
+        <v>6.239520586683803</v>
       </c>
       <c r="AV4" t="n">
-        <v>-74.8545207083047</v>
+        <v>38.94867894614172</v>
       </c>
       <c r="AW4" t="n">
-        <v>93.57854978046913</v>
+        <v>7.740514541142875</v>
       </c>
       <c r="AX4" t="n">
-        <v>-41.38866403365697</v>
+        <v>7.940449002998276</v>
       </c>
       <c r="AY4" t="n">
-        <v>52.65628983409947</v>
+        <v>6.439430467150757</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-21.72333605870433</v>
+        <v>41.29239705876755</v>
       </c>
       <c r="BA4" t="n">
-        <v>65.94053328066997</v>
+        <v>35.25852499811553</v>
       </c>
       <c r="BB4" t="n">
-        <v>25.48378878395906</v>
+        <v>2.508849130836601</v>
       </c>
       <c r="BC4" t="n">
-        <v>-15.08221066449515</v>
+        <v>25.36708103267713</v>
       </c>
       <c r="BD4" t="n">
-        <v>205.9228739453164</v>
+        <v>45.09356014044631</v>
       </c>
       <c r="BE4" t="n">
-        <v>-4.795338309328399</v>
+        <v>23.70508576774822</v>
       </c>
     </row>
     <row r="5">
@@ -1249,172 +1249,172 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>192.5019372356412</v>
+        <v>-1.380827253563481</v>
       </c>
       <c r="C5" t="n">
-        <v>92.87879705894939</v>
+        <v>13.27219300916218</v>
       </c>
       <c r="D5" t="n">
-        <v>21.845779328511</v>
+        <v>11.44041006831626</v>
       </c>
       <c r="E5" t="n">
-        <v>144.7112246427198</v>
+        <v>10.31235293152465</v>
       </c>
       <c r="F5" t="n">
-        <v>76.15832161208751</v>
+        <v>10.81873970866955</v>
       </c>
       <c r="G5" t="n">
-        <v>32.56403647439292</v>
+        <v>18.68148851142567</v>
       </c>
       <c r="H5" t="n">
-        <v>177.4954891494479</v>
+        <v>6.395794533782993</v>
       </c>
       <c r="I5" t="n">
-        <v>8.153283847309622</v>
+        <v>-0.8883073881233495</v>
       </c>
       <c r="J5" t="n">
-        <v>-116.1010196403576</v>
+        <v>32.34274451999011</v>
       </c>
       <c r="K5" t="n">
-        <v>3.858386193686594</v>
+        <v>15.26468710111244</v>
       </c>
       <c r="L5" t="n">
-        <v>45.75010787382896</v>
+        <v>10.00021812218261</v>
       </c>
       <c r="M5" t="n">
-        <v>61.65648102867029</v>
+        <v>-17.97479156973236</v>
       </c>
       <c r="N5" t="n">
-        <v>-9.284304854370504</v>
+        <v>9.870810716901239</v>
       </c>
       <c r="O5" t="n">
-        <v>25.93660611133358</v>
+        <v>1.523749985707149</v>
       </c>
       <c r="P5" t="n">
-        <v>-46.52790806658371</v>
+        <v>4.009881020177109</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.219349849772</v>
+        <v>12.02367318412813</v>
       </c>
       <c r="R5" t="n">
-        <v>-6.886122744583203</v>
+        <v>4.342375009426214</v>
       </c>
       <c r="S5" t="n">
-        <v>10.80303566812099</v>
+        <v>5.862675836944809</v>
       </c>
       <c r="T5" t="n">
-        <v>39.53773412242845</v>
+        <v>-8.522492872070208</v>
       </c>
       <c r="U5" t="n">
-        <v>63.22749650864345</v>
+        <v>46.24659427741338</v>
       </c>
       <c r="V5" t="n">
-        <v>-5.129227738853922</v>
+        <v>3.587188972396593</v>
       </c>
       <c r="W5" t="n">
-        <v>-27.85688099806799</v>
+        <v>13.98324155857344</v>
       </c>
       <c r="X5" t="n">
-        <v>-12.14528982886052</v>
+        <v>11.44007876547481</v>
       </c>
       <c r="Y5" t="n">
-        <v>28.12423826323545</v>
+        <v>11.77029068188554</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.684866755694063</v>
+        <v>15.90999638821569</v>
       </c>
       <c r="AA5" t="n">
-        <v>22.7997736873273</v>
+        <v>3.246683306387153</v>
       </c>
       <c r="AB5" t="n">
-        <v>22.63004331269372</v>
+        <v>10.41895794241584</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.532882860042836</v>
+        <v>11.15091531166417</v>
       </c>
       <c r="AD5" t="n">
-        <v>-70.69758347332044</v>
+        <v>4.691811040742873</v>
       </c>
       <c r="AE5" t="n">
-        <v>58.53614064824659</v>
+        <v>44.0818551612209</v>
       </c>
       <c r="AF5" t="n">
-        <v>63.09590247692837</v>
+        <v>19.79662561094045</v>
       </c>
       <c r="AG5" t="n">
-        <v>38.89175266928307</v>
+        <v>2.59579592877781</v>
       </c>
       <c r="AH5" t="n">
-        <v>-36.15738753125213</v>
+        <v>14.0354710955108</v>
       </c>
       <c r="AI5" t="n">
-        <v>21.55525385019596</v>
+        <v>10.2565585155717</v>
       </c>
       <c r="AJ5" t="n">
-        <v>79.1522098042478</v>
+        <v>15.0532644982873</v>
       </c>
       <c r="AK5" t="n">
-        <v>26.25135935414361</v>
+        <v>0.7531128471166787</v>
       </c>
       <c r="AL5" t="n">
-        <v>100.7969347917167</v>
+        <v>1.974488067049661</v>
       </c>
       <c r="AM5" t="n">
-        <v>32.53836559795512</v>
+        <v>37.28386050716182</v>
       </c>
       <c r="AN5" t="n">
-        <v>7.539832754665076</v>
+        <v>44.03456119565888</v>
       </c>
       <c r="AO5" t="n">
-        <v>37.1250318776578</v>
+        <v>17.93763353260014</v>
       </c>
       <c r="AP5" t="n">
-        <v>79.37089567358343</v>
+        <v>7.106821627874941</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-90.46410661217789</v>
+        <v>-7.12103625384855</v>
       </c>
       <c r="AR5" t="n">
-        <v>-55.9592648234041</v>
+        <v>6.537548229144125</v>
       </c>
       <c r="AS5" t="n">
-        <v>21.15855503527114</v>
+        <v>3.616523425301108</v>
       </c>
       <c r="AT5" t="n">
-        <v>75.19542185285455</v>
+        <v>14.45853544043533</v>
       </c>
       <c r="AU5" t="n">
-        <v>-15.73475365579922</v>
+        <v>8.892815524382526</v>
       </c>
       <c r="AV5" t="n">
-        <v>-11.78873882098712</v>
+        <v>5.957813981750554</v>
       </c>
       <c r="AW5" t="n">
-        <v>52.58504562632058</v>
+        <v>8.969219520445455</v>
       </c>
       <c r="AX5" t="n">
-        <v>-45.36464654885588</v>
+        <v>1.087367915563003</v>
       </c>
       <c r="AY5" t="n">
-        <v>83.72163267290475</v>
+        <v>7.127357961420572</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.8209368598148753</v>
+        <v>10.17363702733176</v>
       </c>
       <c r="BA5" t="n">
-        <v>152.6911792271515</v>
+        <v>-13.74066652466281</v>
       </c>
       <c r="BB5" t="n">
-        <v>-22.67839277010555</v>
+        <v>3.908828142655358</v>
       </c>
       <c r="BC5" t="n">
-        <v>64.34677153644336</v>
+        <v>15.04145207895179</v>
       </c>
       <c r="BD5" t="n">
-        <v>51.5979831128983</v>
+        <v>7.501514259890546</v>
       </c>
       <c r="BE5" t="n">
-        <v>-12.94118274189335</v>
+        <v>5.548160930013053</v>
       </c>
     </row>
     <row r="6">
@@ -1424,172 +1424,172 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33.10776969488851</v>
+        <v>-2.002698493264201</v>
       </c>
       <c r="C6" t="n">
-        <v>36.6540128788144</v>
+        <v>4.151002824182823</v>
       </c>
       <c r="D6" t="n">
-        <v>22.9646059835697</v>
+        <v>16.54457919579643</v>
       </c>
       <c r="E6" t="n">
-        <v>109.5568791497952</v>
+        <v>8.660820660414423</v>
       </c>
       <c r="F6" t="n">
-        <v>37.58486419102173</v>
+        <v>10.25884691818385</v>
       </c>
       <c r="G6" t="n">
-        <v>42.65990257371855</v>
+        <v>12.32296798796105</v>
       </c>
       <c r="H6" t="n">
-        <v>57.47032167755717</v>
+        <v>6.517073300005238</v>
       </c>
       <c r="I6" t="n">
-        <v>-16.46383374934941</v>
+        <v>-4.311445789597151</v>
       </c>
       <c r="J6" t="n">
-        <v>152.5938766763417</v>
+        <v>9.053767067169632</v>
       </c>
       <c r="K6" t="n">
-        <v>-13.50544536872317</v>
+        <v>12.67369682827245</v>
       </c>
       <c r="L6" t="n">
-        <v>-43.64679976878964</v>
+        <v>-0.4387641567273575</v>
       </c>
       <c r="M6" t="n">
-        <v>-47.0107907778143</v>
+        <v>28.83757229162777</v>
       </c>
       <c r="N6" t="n">
-        <v>-16.37781600681875</v>
+        <v>26.94202525483217</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.8025185397505837</v>
+        <v>-1.237189534994762</v>
       </c>
       <c r="P6" t="n">
-        <v>67.98287962434806</v>
+        <v>42.3185065391318</v>
       </c>
       <c r="Q6" t="n">
-        <v>-30.56525198877966</v>
+        <v>4.046244997472183</v>
       </c>
       <c r="R6" t="n">
-        <v>-12.70909434200084</v>
+        <v>6.235557299048722</v>
       </c>
       <c r="S6" t="n">
-        <v>124.6418473874593</v>
+        <v>0.1325563723751592</v>
       </c>
       <c r="T6" t="n">
-        <v>62.91458066919687</v>
+        <v>-11.851649656743</v>
       </c>
       <c r="U6" t="n">
-        <v>-57.91490866971423</v>
+        <v>2.336486224006968</v>
       </c>
       <c r="V6" t="n">
-        <v>7.195060285744708</v>
+        <v>8.149234250830782</v>
       </c>
       <c r="W6" t="n">
-        <v>157.6638905213435</v>
+        <v>6.692183790159687</v>
       </c>
       <c r="X6" t="n">
-        <v>-23.2114769975333</v>
+        <v>37.43315325493499</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.33322104354453</v>
+        <v>4.384244990440513</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.9257943319740516</v>
+        <v>11.55313321961627</v>
       </c>
       <c r="AA6" t="n">
-        <v>-30.20794831736628</v>
+        <v>6.210557588688381</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.74547337556591</v>
+        <v>6.431358176173585</v>
       </c>
       <c r="AC6" t="n">
-        <v>-11.38884102632085</v>
+        <v>4.300725864872278</v>
       </c>
       <c r="AD6" t="n">
-        <v>-21.29799279720896</v>
+        <v>0.06923366030938168</v>
       </c>
       <c r="AE6" t="n">
-        <v>84.38615867785488</v>
+        <v>2.745604451318624</v>
       </c>
       <c r="AF6" t="n">
-        <v>118.0446252526251</v>
+        <v>8.883141520099365</v>
       </c>
       <c r="AG6" t="n">
-        <v>43.55869726337549</v>
+        <v>4.020824873779305</v>
       </c>
       <c r="AH6" t="n">
-        <v>-25.14760688947216</v>
+        <v>5.363319330647099</v>
       </c>
       <c r="AI6" t="n">
-        <v>118.8541264535258</v>
+        <v>6.589810391450622</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-11.23227632602148</v>
+        <v>11.00306464360194</v>
       </c>
       <c r="AK6" t="n">
-        <v>-87.27254293840252</v>
+        <v>-3.023187480011524</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.90252174313737</v>
+        <v>-1.960095061925322</v>
       </c>
       <c r="AM6" t="n">
-        <v>-56.87821639069249</v>
+        <v>0.9711548491989231</v>
       </c>
       <c r="AN6" t="n">
-        <v>12.67897384959468</v>
+        <v>-3.988028323692987</v>
       </c>
       <c r="AO6" t="n">
-        <v>16.3645392610405</v>
+        <v>13.7218481483489</v>
       </c>
       <c r="AP6" t="n">
-        <v>59.46779147757016</v>
+        <v>5.015612271283213</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-68.05596237467093</v>
+        <v>-19.32051753179784</v>
       </c>
       <c r="AR6" t="n">
-        <v>-14.34402505125012</v>
+        <v>2.21033923994957</v>
       </c>
       <c r="AS6" t="n">
-        <v>-10.01481358104417</v>
+        <v>1.988508445077454</v>
       </c>
       <c r="AT6" t="n">
-        <v>72.45031217258811</v>
+        <v>10.48660719245394</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.058184559399048</v>
+        <v>1.095059944718941</v>
       </c>
       <c r="AV6" t="n">
-        <v>-62.71245086097336</v>
+        <v>8.702001112771503</v>
       </c>
       <c r="AW6" t="n">
-        <v>152.9417391426368</v>
+        <v>48.39516613267135</v>
       </c>
       <c r="AX6" t="n">
-        <v>118.8635377332674</v>
+        <v>3.897760405029144</v>
       </c>
       <c r="AY6" t="n">
-        <v>107.9465252583626</v>
+        <v>-0.2620725382230551</v>
       </c>
       <c r="AZ6" t="n">
-        <v>148.8411789470728</v>
+        <v>7.911693107074734</v>
       </c>
       <c r="BA6" t="n">
-        <v>-4.44381988124818</v>
+        <v>-6.821206847603489</v>
       </c>
       <c r="BB6" t="n">
-        <v>129.0111232704517</v>
+        <v>1.748297936959356</v>
       </c>
       <c r="BC6" t="n">
-        <v>-29.5129005055508</v>
+        <v>7.913407508820272</v>
       </c>
       <c r="BD6" t="n">
-        <v>55.49245307886497</v>
+        <v>8.50635128958827</v>
       </c>
       <c r="BE6" t="n">
-        <v>21.39129408839431</v>
+        <v>5.694531472887667</v>
       </c>
     </row>
     <row r="7">
@@ -1599,172 +1599,172 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.370940872213097</v>
+        <v>-0.3636891756182088</v>
       </c>
       <c r="C7" t="n">
-        <v>11.77020145949228</v>
+        <v>1.602800157821633</v>
       </c>
       <c r="D7" t="n">
-        <v>61.76207743157071</v>
+        <v>5.151104310175464</v>
       </c>
       <c r="E7" t="n">
-        <v>40.32359747773094</v>
+        <v>1.137367350147877</v>
       </c>
       <c r="F7" t="n">
-        <v>28.73190371057381</v>
+        <v>1.350270721187248</v>
       </c>
       <c r="G7" t="n">
-        <v>22.83378357958128</v>
+        <v>2.149264547683615</v>
       </c>
       <c r="H7" t="n">
-        <v>-55.37722162143944</v>
+        <v>0.5868663089737391</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.937311862796357</v>
+        <v>2.481660464869141</v>
       </c>
       <c r="J7" t="n">
-        <v>-10.04687918949609</v>
+        <v>2.225553237309073</v>
       </c>
       <c r="K7" t="n">
-        <v>-5.328311530604379</v>
+        <v>4.312732757583317</v>
       </c>
       <c r="L7" t="n">
-        <v>3.537061887211623</v>
+        <v>0.6489843296873343</v>
       </c>
       <c r="M7" t="n">
-        <v>-11.56902469566629</v>
+        <v>-1.172735387458192</v>
       </c>
       <c r="N7" t="n">
-        <v>20.3498566389631</v>
+        <v>1.876259505660419</v>
       </c>
       <c r="O7" t="n">
-        <v>3.079644799047399</v>
+        <v>0.01671973171060677</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.817250663957027</v>
+        <v>0.7837129461704896</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.9790256251519359</v>
+        <v>0.08389889251713473</v>
       </c>
       <c r="R7" t="n">
-        <v>15.99910948219222</v>
+        <v>1.329201866814404</v>
       </c>
       <c r="S7" t="n">
-        <v>30.18440080312062</v>
+        <v>0.5212527456075454</v>
       </c>
       <c r="T7" t="n">
-        <v>-6.529309601276875</v>
+        <v>1.488616141601493</v>
       </c>
       <c r="U7" t="n">
-        <v>38.17646966986274</v>
+        <v>2.398090498060355</v>
       </c>
       <c r="V7" t="n">
-        <v>11.72120138457045</v>
+        <v>1.471974298435943</v>
       </c>
       <c r="W7" t="n">
-        <v>-14.08177950360963</v>
+        <v>-3.993660095032546</v>
       </c>
       <c r="X7" t="n">
-        <v>1.666263709695127</v>
+        <v>-0.3345229902440216</v>
       </c>
       <c r="Y7" t="n">
-        <v>-15.17073242712797</v>
+        <v>3.046573723749017</v>
       </c>
       <c r="Z7" t="n">
-        <v>59.52675281355341</v>
+        <v>2.560441861428238</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.65908332334311</v>
+        <v>3.144306211806017</v>
       </c>
       <c r="AB7" t="n">
-        <v>45.84519190454393</v>
+        <v>4.593436209551884</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.21670014351797</v>
+        <v>-1.884560895875218</v>
       </c>
       <c r="AD7" t="n">
-        <v>-8.135599833699619</v>
+        <v>1.100917637565865</v>
       </c>
       <c r="AE7" t="n">
-        <v>-58.27135052780331</v>
+        <v>2.282798528295988</v>
       </c>
       <c r="AF7" t="n">
-        <v>32.95597729056639</v>
+        <v>1.110823975427476</v>
       </c>
       <c r="AG7" t="n">
-        <v>15.62522793783409</v>
+        <v>2.411679984213723</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.089526275052108</v>
+        <v>5.078208992816699</v>
       </c>
       <c r="AI7" t="n">
-        <v>15.18419692864413</v>
+        <v>2.109670221666355</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.8601306393538</v>
+        <v>1.810316937283666</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.675138702697022</v>
+        <v>0.8941135552105178</v>
       </c>
       <c r="AL7" t="n">
-        <v>-53.2330789953992</v>
+        <v>-0.4793759940515378</v>
       </c>
       <c r="AM7" t="n">
-        <v>-11.84365919743952</v>
+        <v>3.417549087430008</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.6482999801486828</v>
+        <v>3.741361500042426</v>
       </c>
       <c r="AO7" t="n">
-        <v>29.57121082971081</v>
+        <v>-1.298371930291267</v>
       </c>
       <c r="AP7" t="n">
-        <v>-4.390843813012357</v>
+        <v>0.6573201223702854</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10.33096291202397</v>
+        <v>-0.1472569763643219</v>
       </c>
       <c r="AR7" t="n">
-        <v>12.99555439700788</v>
+        <v>-0.5533035595208019</v>
       </c>
       <c r="AS7" t="n">
-        <v>-16.73163006728732</v>
+        <v>1.512179986528424</v>
       </c>
       <c r="AT7" t="n">
-        <v>-8.075693156108844</v>
+        <v>-1.387254171774043</v>
       </c>
       <c r="AU7" t="n">
-        <v>-10.20372608339219</v>
+        <v>0.6432125070721159</v>
       </c>
       <c r="AV7" t="n">
-        <v>-12.94591073741736</v>
+        <v>0.2689522643937967</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.927609289100129</v>
+        <v>2.467270240292235</v>
       </c>
       <c r="AX7" t="n">
-        <v>32.13879200059881</v>
+        <v>-0.9122384748247145</v>
       </c>
       <c r="AY7" t="n">
-        <v>27.05485183397285</v>
+        <v>0.970447894132316</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-30.17520663508565</v>
+        <v>1.43490871869075</v>
       </c>
       <c r="BA7" t="n">
-        <v>63.55946811007523</v>
+        <v>0.3563364649479069</v>
       </c>
       <c r="BB7" t="n">
-        <v>7.402217177008896</v>
+        <v>0.7761312177488051</v>
       </c>
       <c r="BC7" t="n">
-        <v>-73.62492155341351</v>
+        <v>-0.3436903071242775</v>
       </c>
       <c r="BD7" t="n">
-        <v>-19.13554832024813</v>
+        <v>3.040343318857329</v>
       </c>
       <c r="BE7" t="n">
-        <v>3.740213915906517</v>
+        <v>1.847181639601988</v>
       </c>
     </row>
     <row r="8">
@@ -1774,172 +1774,172 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.914596346443975</v>
+        <v>0.3490592296805305</v>
       </c>
       <c r="C8" t="n">
-        <v>30.50234660830184</v>
+        <v>0.9792363753204244</v>
       </c>
       <c r="D8" t="n">
-        <v>18.39465308589057</v>
+        <v>1.627630860012071</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.13894797849518</v>
+        <v>0.1070114211761432</v>
       </c>
       <c r="F8" t="n">
-        <v>20.99279334178554</v>
+        <v>-0.5658188721080876</v>
       </c>
       <c r="G8" t="n">
-        <v>8.911781419623487</v>
+        <v>-0.03138956347570662</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.998874044686833</v>
+        <v>0.9335648439147451</v>
       </c>
       <c r="I8" t="n">
-        <v>-6.626876371082062</v>
+        <v>-0.1220704211482961</v>
       </c>
       <c r="J8" t="n">
-        <v>-16.63677402625851</v>
+        <v>3.366354488012339</v>
       </c>
       <c r="K8" t="n">
-        <v>2.24512244360285</v>
+        <v>6.251792873292628</v>
       </c>
       <c r="L8" t="n">
-        <v>11.40049924930189</v>
+        <v>0.737740589308953</v>
       </c>
       <c r="M8" t="n">
-        <v>-56.56031972941796</v>
+        <v>-2.129510606882296</v>
       </c>
       <c r="N8" t="n">
-        <v>-49.47465699522632</v>
+        <v>0.386892326494088</v>
       </c>
       <c r="O8" t="n">
-        <v>6.172751288315318</v>
+        <v>1.13116740100757</v>
       </c>
       <c r="P8" t="n">
-        <v>-8.57073856305195</v>
+        <v>0.5626781091987902</v>
       </c>
       <c r="Q8" t="n">
-        <v>-19.93559709484067</v>
+        <v>2.332414561762399</v>
       </c>
       <c r="R8" t="n">
-        <v>-15.00242460463831</v>
+        <v>0.5745326140386462</v>
       </c>
       <c r="S8" t="n">
-        <v>36.26067428983249</v>
+        <v>-0.1497433215025187</v>
       </c>
       <c r="T8" t="n">
-        <v>1.993421378623957</v>
+        <v>-1.243258625257837</v>
       </c>
       <c r="U8" t="n">
-        <v>12.10999307957907</v>
+        <v>2.622494893631874</v>
       </c>
       <c r="V8" t="n">
-        <v>57.61885096974927</v>
+        <v>1.054437342505565</v>
       </c>
       <c r="W8" t="n">
-        <v>19.11476403565458</v>
+        <v>4.705467256454734</v>
       </c>
       <c r="X8" t="n">
-        <v>5.46504409687199</v>
+        <v>0.8342206011238706</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.09717670720236</v>
+        <v>2.899021068178206</v>
       </c>
       <c r="Z8" t="n">
-        <v>36.07221040074395</v>
+        <v>0.6948541987957578</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.34022545959072</v>
+        <v>-0.5551849534593688</v>
       </c>
       <c r="AB8" t="n">
-        <v>-3.861276289118273</v>
+        <v>1.384193011319794</v>
       </c>
       <c r="AC8" t="n">
-        <v>-13.8147504771416</v>
+        <v>5.464746662012161</v>
       </c>
       <c r="AD8" t="n">
-        <v>-42.75235692956149</v>
+        <v>5.014298513272389</v>
       </c>
       <c r="AE8" t="n">
-        <v>-15.22530629983961</v>
+        <v>1.747040789645817</v>
       </c>
       <c r="AF8" t="n">
-        <v>42.81281924854556</v>
+        <v>-1.74704719082759</v>
       </c>
       <c r="AG8" t="n">
-        <v>-27.72010955267831</v>
+        <v>0.3456546538270034</v>
       </c>
       <c r="AH8" t="n">
-        <v>10.94045610136846</v>
+        <v>3.322355851567079</v>
       </c>
       <c r="AI8" t="n">
-        <v>-14.06595696233852</v>
+        <v>-0.1035986225479757</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29.32821249481591</v>
+        <v>-3.505872555539256</v>
       </c>
       <c r="AK8" t="n">
-        <v>-3.70783386954285</v>
+        <v>0.9606899592829214</v>
       </c>
       <c r="AL8" t="n">
-        <v>-17.30314366141861</v>
+        <v>-1.371949948092431</v>
       </c>
       <c r="AM8" t="n">
-        <v>89.30162116730679</v>
+        <v>1.524806116296286</v>
       </c>
       <c r="AN8" t="n">
-        <v>-7.806010660798743</v>
+        <v>0.9814232808301004</v>
       </c>
       <c r="AO8" t="n">
-        <v>-4.966813335195529</v>
+        <v>0.6748651948004013</v>
       </c>
       <c r="AP8" t="n">
-        <v>-34.07253908450417</v>
+        <v>1.011755843800635</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-6.172109421330959</v>
+        <v>1.091398966034267</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.8647192168098411</v>
+        <v>1.744474291358988</v>
       </c>
       <c r="AS8" t="n">
-        <v>47.99943361170282</v>
+        <v>0.2566806522228945</v>
       </c>
       <c r="AT8" t="n">
-        <v>8.389559044851339</v>
+        <v>5.944692984672276</v>
       </c>
       <c r="AU8" t="n">
-        <v>20.7670591152351</v>
+        <v>2.733454873802385</v>
       </c>
       <c r="AV8" t="n">
-        <v>20.3263751182784</v>
+        <v>0.4204716455751778</v>
       </c>
       <c r="AW8" t="n">
-        <v>-31.04502836993949</v>
+        <v>1.122813020238935</v>
       </c>
       <c r="AX8" t="n">
-        <v>-4.80603710648048</v>
+        <v>0.4510016684128307</v>
       </c>
       <c r="AY8" t="n">
-        <v>19.99850646599576</v>
+        <v>2.511933765456475</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14.57744693435219</v>
+        <v>2.632339556296265</v>
       </c>
       <c r="BA8" t="n">
-        <v>19.90896603900876</v>
+        <v>-0.5492003413862201</v>
       </c>
       <c r="BB8" t="n">
-        <v>-10.38654140176376</v>
+        <v>1.610720587458912</v>
       </c>
       <c r="BC8" t="n">
-        <v>-8.267707766920353</v>
+        <v>-1.611867576804132</v>
       </c>
       <c r="BD8" t="n">
-        <v>-16.83271222573216</v>
+        <v>-2.236000139963143</v>
       </c>
       <c r="BE8" t="n">
-        <v>-5.155942635624448</v>
+        <v>1.496508787116097</v>
       </c>
     </row>
     <row r="9">
@@ -1949,172 +1949,172 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.406645257984222</v>
+        <v>-0.4298999556965108</v>
       </c>
       <c r="C9" t="n">
-        <v>21.23288996197036</v>
+        <v>-2.340622203451628</v>
       </c>
       <c r="D9" t="n">
-        <v>-45.27329794677696</v>
+        <v>-0.7074425109121874</v>
       </c>
       <c r="E9" t="n">
-        <v>6.347625648056691</v>
+        <v>0.386358375296488</v>
       </c>
       <c r="F9" t="n">
-        <v>5.549234681590376</v>
+        <v>2.440016631195735</v>
       </c>
       <c r="G9" t="n">
-        <v>30.80932870190348</v>
+        <v>0.4286815369055728</v>
       </c>
       <c r="H9" t="n">
-        <v>15.30368522668767</v>
+        <v>0.3682868778430198</v>
       </c>
       <c r="I9" t="n">
-        <v>23.11880675537217</v>
+        <v>0.5968696419704177</v>
       </c>
       <c r="J9" t="n">
-        <v>-14.67282112336047</v>
+        <v>-1.226456751084439</v>
       </c>
       <c r="K9" t="n">
-        <v>4.112868542535338</v>
+        <v>1.878705041497496</v>
       </c>
       <c r="L9" t="n">
-        <v>1.933235495441543</v>
+        <v>-1.95666164276715</v>
       </c>
       <c r="M9" t="n">
-        <v>9.806098852556419</v>
+        <v>6.057819685571436</v>
       </c>
       <c r="N9" t="n">
-        <v>-12.14083344786107</v>
+        <v>-0.3907273255970523</v>
       </c>
       <c r="O9" t="n">
-        <v>2.260789638269318</v>
+        <v>-0.8863827718007561</v>
       </c>
       <c r="P9" t="n">
-        <v>30.35696724692021</v>
+        <v>-2.036967726044355</v>
       </c>
       <c r="Q9" t="n">
-        <v>-36.10900696946831</v>
+        <v>-2.178201978528387</v>
       </c>
       <c r="R9" t="n">
-        <v>-27.05134672922078</v>
+        <v>-0.6784997352918353</v>
       </c>
       <c r="S9" t="n">
-        <v>18.46055835604998</v>
+        <v>-1.167260545363332</v>
       </c>
       <c r="T9" t="n">
-        <v>-6.455116233274439</v>
+        <v>-0.2374545546349586</v>
       </c>
       <c r="U9" t="n">
-        <v>-29.731474062822</v>
+        <v>0.5176857472250987</v>
       </c>
       <c r="V9" t="n">
-        <v>-42.22163998452469</v>
+        <v>2.569652599608672</v>
       </c>
       <c r="W9" t="n">
-        <v>24.64125660250589</v>
+        <v>0.02898411375652174</v>
       </c>
       <c r="X9" t="n">
-        <v>-3.535245441308933</v>
+        <v>2.052233473142294</v>
       </c>
       <c r="Y9" t="n">
-        <v>49.87391145940158</v>
+        <v>-0.1997444496237223</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.1071301289996036</v>
+        <v>-4.716789948467537</v>
       </c>
       <c r="AA9" t="n">
-        <v>23.4193685738202</v>
+        <v>0.6976722861270727</v>
       </c>
       <c r="AB9" t="n">
-        <v>-13.56960958480515</v>
+        <v>1.905794968232998</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.416011844394</v>
+        <v>-0.7794827405106802</v>
       </c>
       <c r="AD9" t="n">
-        <v>-7.645264111126585</v>
+        <v>-1.588725858406993</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6996588497912046</v>
+        <v>0.2996832243380013</v>
       </c>
       <c r="AF9" t="n">
-        <v>70.68171711782595</v>
+        <v>-1.296293995427616</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.342383684943904</v>
+        <v>-2.055225711393592</v>
       </c>
       <c r="AH9" t="n">
-        <v>-2.827784198816469</v>
+        <v>1.056722024017895</v>
       </c>
       <c r="AI9" t="n">
-        <v>-31.90769810357748</v>
+        <v>2.374705041565282</v>
       </c>
       <c r="AJ9" t="n">
-        <v>46.39237097117127</v>
+        <v>2.225312222815893</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.670801502263329</v>
+        <v>1.095331020088331</v>
       </c>
       <c r="AL9" t="n">
-        <v>62.68487759878784</v>
+        <v>-0.4342725726717411</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.681138081852612</v>
+        <v>1.197233839081808</v>
       </c>
       <c r="AN9" t="n">
-        <v>-15.17197442565137</v>
+        <v>-0.5209824871890754</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.972049933767167</v>
+        <v>-1.564938952642302</v>
       </c>
       <c r="AP9" t="n">
-        <v>36.79013006237557</v>
+        <v>2.396861069729672</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16.9874809169235</v>
+        <v>-0.677006820212731</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.946694299613755</v>
+        <v>0.4358664659672672</v>
       </c>
       <c r="AS9" t="n">
-        <v>22.1024904941919</v>
+        <v>2.51916313102534</v>
       </c>
       <c r="AT9" t="n">
-        <v>-36.27961236274665</v>
+        <v>3.665806839528428</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2129169123627</v>
+        <v>-2.696540685583607</v>
       </c>
       <c r="AV9" t="n">
-        <v>-18.73576420472985</v>
+        <v>1.184421539445606</v>
       </c>
       <c r="AW9" t="n">
-        <v>-77.29614434059448</v>
+        <v>-2.828203089485606</v>
       </c>
       <c r="AX9" t="n">
-        <v>-16.49679064631833</v>
+        <v>-1.745120977744381</v>
       </c>
       <c r="AY9" t="n">
-        <v>16.57038088995879</v>
+        <v>-1.793745232282806</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-58.19242702281803</v>
+        <v>2.640323013522497</v>
       </c>
       <c r="BA9" t="n">
-        <v>87.3697382278677</v>
+        <v>-0.1698798534439219</v>
       </c>
       <c r="BB9" t="n">
-        <v>48.29063920625846</v>
+        <v>-0.4682015177180488</v>
       </c>
       <c r="BC9" t="n">
-        <v>10.17437284068819</v>
+        <v>2.233477911857357</v>
       </c>
       <c r="BD9" t="n">
-        <v>18.45399438859057</v>
+        <v>3.760562447696005</v>
       </c>
       <c r="BE9" t="n">
-        <v>-3.286498057976488</v>
+        <v>0.416381684550395</v>
       </c>
     </row>
   </sheetData>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-817.5452578267699</v>
+        <v>-557.6717989755649</v>
       </c>
     </row>
     <row r="3">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.15871991110845</v>
+        <v>98.19054689180233</v>
       </c>
     </row>
     <row r="4">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.39173760535857</v>
+        <v>108.2218270628414</v>
       </c>
     </row>
     <row r="5">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.47448701798153</v>
+        <v>78.04823947266621</v>
       </c>
     </row>
     <row r="6">
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96.39801476518971</v>
+        <v>80.54357968544832</v>
       </c>
     </row>
     <row r="7">
@@ -2200,7 +2200,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.21223578231725</v>
+        <v>112.0694340084987</v>
       </c>
     </row>
     <row r="8">
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.9091987885391</v>
+        <v>103.269525065528</v>
       </c>
     </row>
     <row r="9">
@@ -2220,7 +2220,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>210.7298362765271</v>
+        <v>88.4938866382751</v>
       </c>
     </row>
     <row r="10">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.67780825256871</v>
+        <v>111.2713699886419</v>
       </c>
     </row>
     <row r="11">
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-125.8694680320829</v>
+        <v>94.41053455508043</v>
       </c>
     </row>
     <row r="12">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.36008403973474</v>
+        <v>120.8899508373104</v>
       </c>
     </row>
     <row r="13">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.8363306280996</v>
+        <v>91.59054236693218</v>
       </c>
     </row>
     <row r="14">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.7428678619259</v>
+        <v>62.2046525597917</v>
       </c>
     </row>
     <row r="15">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52.44043759357488</v>
+        <v>86.43527301280311</v>
       </c>
     </row>
     <row r="16">
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.26298775439012</v>
+        <v>98.48867060174805</v>
       </c>
     </row>
     <row r="17">
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>52.28612627807873</v>
+        <v>54.81460124471984</v>
       </c>
     </row>
     <row r="18">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52.51082191074418</v>
+        <v>70.18878422220916</v>
       </c>
     </row>
     <row r="19">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.2564861621944</v>
+        <v>83.60312450227842</v>
       </c>
     </row>
     <row r="20">
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>191.6402338808226</v>
+        <v>78.8409476777795</v>
       </c>
     </row>
     <row r="21">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>72.69410701993193</v>
+        <v>92.49627031016776</v>
       </c>
     </row>
     <row r="22">
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.76974900037</v>
+        <v>60.31106090939434</v>
       </c>
     </row>
     <row r="23">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>85.91341031314744</v>
+        <v>72.18388040255003</v>
       </c>
     </row>
     <row r="24">
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54.78325576224094</v>
+        <v>112.6780636189369</v>
       </c>
     </row>
     <row r="25">
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.07746021084304</v>
+        <v>74.53221505967559</v>
       </c>
     </row>
     <row r="26">
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>198.3496011917372</v>
+        <v>113.1483188959763</v>
       </c>
     </row>
     <row r="27">
@@ -2400,7 +2400,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>159.6641713105218</v>
+        <v>116.6646120918792</v>
       </c>
     </row>
     <row r="28">
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.75931347957273</v>
+        <v>104.7856351223198</v>
       </c>
     </row>
     <row r="29">
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>119.1112183397004</v>
+        <v>72.25302746952283</v>
       </c>
     </row>
     <row r="30">
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>107.1082262501585</v>
+        <v>96.22660679675776</v>
       </c>
     </row>
     <row r="31">
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.8631367300777</v>
+        <v>81.88014296764561</v>
       </c>
     </row>
     <row r="32">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41.93913226179945</v>
+        <v>67.63450468722863</v>
       </c>
     </row>
     <row r="33">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>45.12873520340491</v>
+        <v>120.7566982282256</v>
       </c>
     </row>
     <row r="34">
@@ -2470,7 +2470,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.1373994484628</v>
+        <v>82.75081778604459</v>
       </c>
     </row>
     <row r="35">
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70.3137234067398</v>
+        <v>123.189718255315</v>
       </c>
     </row>
     <row r="36">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>71.57419232082395</v>
+        <v>90.46057263969782</v>
       </c>
     </row>
     <row r="37">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>198.8911503612488</v>
+        <v>123.4693368590208</v>
       </c>
     </row>
     <row r="38">
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.32780273097841</v>
+        <v>80.51165390124788</v>
       </c>
     </row>
     <row r="39">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>48.46417719235478</v>
+        <v>92.7595260722038</v>
       </c>
     </row>
     <row r="40">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>65.2517331071578</v>
+        <v>74.7822457048357</v>
       </c>
     </row>
     <row r="41">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>162.5872183353393</v>
+        <v>71.89509231072402</v>
       </c>
     </row>
     <row r="42">
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.24592048421064</v>
+        <v>108.6332190788954</v>
       </c>
     </row>
     <row r="43">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>116.9596265368748</v>
+        <v>70.49404379205848</v>
       </c>
     </row>
     <row r="44">
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.96770573223043</v>
+        <v>70.06691639202299</v>
       </c>
     </row>
     <row r="45">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>45.46123480273967</v>
+        <v>77.60532456809517</v>
       </c>
     </row>
     <row r="46">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.72847696883716</v>
+        <v>86.24993359031266</v>
       </c>
     </row>
     <row r="47">
@@ -2600,7 +2600,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>51.38628232258959</v>
+        <v>102.1798318011312</v>
       </c>
     </row>
     <row r="48">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>110.3609937245017</v>
+        <v>88.11090588486823</v>
       </c>
     </row>
     <row r="49">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>167.3904162333794</v>
+        <v>87.90875174854119</v>
       </c>
     </row>
     <row r="50">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>135.4899290387</v>
+        <v>66.89572033371293</v>
       </c>
     </row>
     <row r="51">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>68.54631077126017</v>
+        <v>62.09975990516286</v>
       </c>
     </row>
     <row r="52">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>54.33517816682322</v>
+        <v>77.98526097201638</v>
       </c>
     </row>
     <row r="53">
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>36.29346277872702</v>
+        <v>92.78124739130935</v>
       </c>
     </row>
     <row r="54">
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>50.31672180249825</v>
+        <v>72.65757242910742</v>
       </c>
     </row>
     <row r="55">
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>46.07539829838077</v>
+        <v>63.38059459512139</v>
       </c>
     </row>
     <row r="56">
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>211.6818389291099</v>
+        <v>122.7904835901813</v>
       </c>
     </row>
     <row r="57">
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>78.15845407689484</v>
+        <v>71.23508919391817</v>
       </c>
     </row>
     <row r="58">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>90.05375633975807</v>
+        <v>98.42965388754179</v>
       </c>
     </row>
   </sheetData>
